--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.011620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.011620.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2043,12 +2043,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2503,12 +2503,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2797,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3221,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4783,12 +4783,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5371,12 +5371,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5707,12 +5707,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5833,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6215,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6593,12 +6593,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6971,12 +6971,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8403,12 +8403,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8697,12 +8697,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9789,12 +9789,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9915,12 +9915,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10591,12 +10591,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10759,12 +10759,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11767,12 +11767,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12061,12 +12061,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12355,12 +12355,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12439,12 +12439,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12985,12 +12985,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13237,12 +13237,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
